--- a/public/downloads/Yoklama.xlsx
+++ b/public/downloads/Yoklama.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>#</t>
   </si>
@@ -32,15 +32,6 @@
   </si>
   <si>
     <t>20121701028</t>
-  </si>
-  <si>
-    <t>Mustafa</t>
-  </si>
-  <si>
-    <t>Erşahin</t>
-  </si>
-  <si>
-    <t>1232345234</t>
   </si>
 </sst>
 </file>
@@ -448,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="3" width="12" customWidth="1"/>
@@ -487,22 +478,6 @@
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
